--- a/documentation/tests/test-trigonometry-exam-questions-navigation.xlsx
+++ b/documentation/tests/test-trigonometry-exam-questions-navigation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="51">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -52,35 +52,7 @@
     <t xml:space="preserve">Pre-Requisite</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trigonometry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">exam questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> displays with main navbar and breadcrumb navigation</t>
-    </r>
+    <t xml:space="preserve">Trigonometry exam questions displays with main navbar and breadcrumb navigation</t>
   </si>
   <si>
     <t xml:space="preserve">Post-Requisite</t>
@@ -110,131 +82,19 @@
     <t xml:space="preserve">Test Comments</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Navigate to Trigonometry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">exam questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
+    <t xml:space="preserve">Navigate to Trigonometry exam questions page</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://liz-conway.github.io/trigonometry-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">exam-questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.html</t>
-    </r>
+    <t xml:space="preserve">https://liz-conway.github.io/trigonometry-exam-questions.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trigonometry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">exam questions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">page displays</t>
-    </r>
+    <t xml:space="preserve">Trigonometry exam questions page displays</t>
   </si>
   <si>
     <t xml:space="preserve">Navigation Menu appears in top right – HOME, MATHS, ABOUT, CONTACT US</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Breadcrumb navigation Menu appears under the main header – Co-ordinate Geometry, Maths &gt; Trigonometry &gt; E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xam Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, Number Types</t>
-    </r>
+    <t xml:space="preserve">Breadcrumb navigation Menu appears under the main header – Co-ordinate Geometry, Maths &gt; Trigonometry &gt; Exam Questions, Number Types</t>
   </si>
   <si>
     <t xml:space="preserve">Navigate to MathsBuddy home page</t>
@@ -246,66 +106,10 @@
     <t xml:space="preserve">Home Page displays</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Navigate back to Trigonometry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">exam questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
+    <t xml:space="preserve">Navigate back to Trigonometry exam questions page</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trigonometry Page </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">exam questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> displays</t>
-    </r>
+    <t xml:space="preserve">Trigonometry Page exam questions displays</t>
   </si>
   <si>
     <t xml:space="preserve">Navigate to MathsBuddy maths page</t>
@@ -368,9 +172,6 @@
     <t xml:space="preserve">Chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">Trigonometry exam questions displays with main navbar and breadcrumb navigation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Huawei MediaPad M5 10.1"</t>
   </si>
   <si>
@@ -385,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -415,12 +216,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -575,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,11 +471,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,10 +485,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -987,13 +774,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -1002,19 +791,21 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -1025,84 +816,92 @@
         <v>23</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" s="32" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="30" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" s="32" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" s="30" customFormat="true" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -1110,47 +909,51 @@
       <c r="A12" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
@@ -1158,244 +961,264 @@
       <c r="A14" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" s="32" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="30" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" s="32" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" s="30" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-    </row>
-    <row r="17" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" s="32" customFormat="true" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" s="30" customFormat="true" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" s="32" customFormat="true" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" s="30" customFormat="true" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" s="32" customFormat="true" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" s="30" customFormat="true" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1409,64 +1232,64 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="38" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="11"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="38" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -1531,13 +1354,15 @@
         <v>21</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
@@ -1546,19 +1371,21 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -1569,132 +1396,144 @@
         <v>23</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
-    <row r="37" s="32" customFormat="true" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" s="30" customFormat="true" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
     </row>
-    <row r="38" s="32" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="30" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
     </row>
@@ -1702,218 +1541,236 @@
       <c r="A39" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26" t="str">
+      <c r="G39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="25" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="25"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="26" t="str">
+      <c r="G40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="25" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-    </row>
-    <row r="42" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-    </row>
-    <row r="43" s="32" customFormat="true" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" s="30" customFormat="true" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-    </row>
-    <row r="44" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="22"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-    </row>
-    <row r="45" s="32" customFormat="true" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" s="30" customFormat="true" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-    </row>
-    <row r="46" s="32" customFormat="true" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" s="30" customFormat="true" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
@@ -1921,22 +1778,24 @@
         <v>40</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2227,7 +2086,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2273,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -2336,10 +2195,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2360,13 +2219,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -2375,19 +2236,21 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -2398,84 +2261,92 @@
         <v>23</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -2483,47 +2354,51 @@
       <c r="A12" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
@@ -2531,241 +2406,261 @@
       <c r="A14" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" s="32" customFormat="true" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" s="30" customFormat="true" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" s="32" customFormat="true" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" s="30" customFormat="true" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" s="32" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" s="30" customFormat="true" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" s="32" customFormat="true" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" s="30" customFormat="true" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" s="32" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" s="30" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
@@ -2782,64 +2677,64 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="38" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="38" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="42"/>
+      <c r="G27" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="40"/>
       <c r="I27" s="11"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="38" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -2880,10 +2775,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="20"/>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="18" t="s">
         <v>18</v>
       </c>
@@ -2904,13 +2799,15 @@
         <v>21</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
@@ -2919,19 +2816,21 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -2942,84 +2841,92 @@
         <v>23</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
@@ -3027,47 +2934,51 @@
       <c r="A37" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
     </row>
@@ -3075,218 +2986,236 @@
       <c r="A39" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26" t="str">
+      <c r="G39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="25" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="25"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="26" t="str">
+      <c r="G40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="25" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-    </row>
-    <row r="42" s="32" customFormat="true" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" s="30" customFormat="true" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-    </row>
-    <row r="43" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-    </row>
-    <row r="44" s="32" customFormat="true" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" s="30" customFormat="true" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="22"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-    </row>
-    <row r="45" s="32" customFormat="true" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" s="30" customFormat="true" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-    </row>
-    <row r="46" s="32" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" s="30" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
@@ -3294,22 +3223,24 @@
         <v>40</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3587,7 +3518,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3633,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -3696,10 +3627,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
@@ -3720,13 +3651,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -3735,19 +3668,21 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="73.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -3758,84 +3693,92 @@
         <v>23</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -3843,47 +3786,51 @@
       <c r="A12" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
@@ -3891,241 +3838,261 @@
       <c r="A14" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
@@ -4142,64 +4109,64 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="38" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="38" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="42"/>
+      <c r="G27" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="40"/>
       <c r="I27" s="11"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="38" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -4240,10 +4207,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="20"/>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="18" t="s">
         <v>18</v>
       </c>
@@ -4264,13 +4231,15 @@
         <v>21</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
@@ -4279,19 +4248,21 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -4302,84 +4273,92 @@
         <v>23</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
@@ -4387,47 +4366,51 @@
       <c r="A37" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
     </row>
@@ -4435,218 +4418,236 @@
       <c r="A39" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26" t="str">
+      <c r="G39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="25" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="25"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="26" t="str">
+      <c r="G40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="25" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-    </row>
-    <row r="42" s="32" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" s="30" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-    </row>
-    <row r="43" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-    </row>
-    <row r="44" s="32" customFormat="true" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" s="30" customFormat="true" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="22"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-    </row>
-    <row r="45" s="32" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" s="30" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-    </row>
-    <row r="46" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
@@ -4654,204 +4655,206 @@
         <v>40</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5181,7 +5184,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5227,7 +5230,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -5290,10 +5293,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="18" t="s">
         <v>18</v>
       </c>
@@ -5314,13 +5317,15 @@
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -5329,19 +5334,21 @@
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -5352,84 +5359,92 @@
         <v>23</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
@@ -5437,47 +5452,51 @@
       <c r="A12" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="G13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
@@ -5485,241 +5504,261 @@
       <c r="A14" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="26" t="str">
+      <c r="G16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="26" t="str">
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="25" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="26" t="str">
+      <c r="G18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="26" t="str">
+      <c r="G19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="25" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="33" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26" t="str">
+      <c r="G20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26" t="str">
+      <c r="G21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26" t="str">
+      <c r="G22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" s="32" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" s="30" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
@@ -5736,64 +5775,64 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35"/>
+      <c r="A25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="38" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="6"/>
       <c r="J26" s="7"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="41" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="38" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="42"/>
+      <c r="G27" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="40"/>
       <c r="I27" s="11"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="38" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -5834,10 +5873,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="20"/>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="18" t="s">
         <v>18</v>
       </c>
@@ -5858,13 +5897,15 @@
         <v>21</v>
       </c>
       <c r="F31" s="16"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
@@ -5873,19 +5914,21 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -5896,84 +5939,92 @@
         <v>23</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26" t="str">
+      <c r="G33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="25" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="26" t="str">
+      <c r="G34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="25" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="26" t="str">
+      <c r="G35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="25" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26" t="str">
+      <c r="G36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="25" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="25"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
@@ -5981,47 +6032,51 @@
       <c r="A37" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26" t="str">
+      <c r="G37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="25" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="25"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26" t="str">
+      <c r="G38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="25" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="25"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
     </row>
@@ -6029,218 +6084,236 @@
       <c r="A39" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26" t="str">
+      <c r="G39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="25" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="25"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="22"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="26" t="str">
+      <c r="G40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="25" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="25"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="26" t="str">
+      <c r="G41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="25" t="str">
         <f aca="false">IF(G41=E41,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-    </row>
-    <row r="42" s="32" customFormat="true" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" s="30" customFormat="true" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="26" t="str">
+      <c r="G42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="25" t="str">
         <f aca="false">IF(G42=E42,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-    </row>
-    <row r="43" s="32" customFormat="true" ht="66.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" s="30" customFormat="true" ht="66.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="26" t="str">
+      <c r="G43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="25" t="str">
         <f aca="false">IF(G43=E43,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-    </row>
-    <row r="44" s="32" customFormat="true" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" s="30" customFormat="true" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="22"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="26" t="str">
+      <c r="G44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="25" t="str">
         <f aca="false">IF(G44=E44,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-    </row>
-    <row r="45" s="32" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" s="30" customFormat="true" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="26" t="str">
+      <c r="G45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="25" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-    </row>
-    <row r="46" s="32" customFormat="true" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" s="30" customFormat="true" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="26" t="str">
+      <c r="G46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="25" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="26" t="str">
+      <c r="G47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="25" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
@@ -6248,22 +6321,24 @@
         <v>40</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="16"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="26" t="str">
+      <c r="G48" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="25" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
